--- a/Assets/spreadsheet.xlsx
+++ b/Assets/spreadsheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="83">
   <si>
     <t/>
   </si>
@@ -636,8 +636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AJ3" sqref="AJ3"/>
+    <sheetView tabSelected="1" topLeftCell="R10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Z34" sqref="Z34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -2598,9 +2598,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
         <v>77</v>
@@ -2643,7 +2641,7 @@
         <v>54</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="X23" s="1" t="s">
         <v>58</v>
@@ -2652,7 +2650,7 @@
         <v>77</v>
       </c>
       <c r="Z23" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
@@ -3591,14 +3589,14 @@
         <v>65</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="X34" s="1" t="s">
         <v>54</v>
       </c>
       <c r="Y34" s="1"/>
       <c r="Z34" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="AA34" s="1" t="s">
         <v>64</v>
